--- a/invoices/files/contacts.xlsx
+++ b/invoices/files/contacts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivan/GitHub/BananaAccounting/Universal/invoices/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivan/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD427EBF-07DE-C041-AA22-8A4F7209A6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7E15CE2-3F38-6644-BE97-A4F320145B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19880" xr2:uid="{3102B285-A63B-7F49-8A8D-B68333B3E79F}"/>
+    <workbookView xWindow="-32440" yWindow="10800" windowWidth="29080" windowHeight="9660" xr2:uid="{351C8F38-3BC8-9F41-9FDB-25EE6A4BC0D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>RowId</t>
   </si>
@@ -62,85 +62,70 @@
     <t>CountryCode</t>
   </si>
   <si>
-    <t>DiscountPercentage</t>
-  </si>
-  <si>
-    <t>PaymentTermInDays</t>
-  </si>
-  <si>
-    <t>Currency</t>
-  </si>
-  <si>
     <t>LanguageCode</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>Mario</t>
   </si>
   <si>
     <t>Rossi</t>
   </si>
   <si>
+    <t>Via delle Vigne 7</t>
+  </si>
+  <si>
     <t>Lugano</t>
   </si>
   <si>
     <t>CH</t>
   </si>
   <si>
-    <t>CHF</t>
-  </si>
-  <si>
     <t>it</t>
   </si>
   <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>Dupoint</t>
+  </si>
+  <si>
+    <t>Rue de la Paix 10</t>
+  </si>
+  <si>
+    <t>Neuchâtel</t>
+  </si>
+  <si>
+    <t>fr</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Schwartz</t>
+  </si>
+  <si>
+    <t>Löwenstrasse 50</t>
+  </si>
+  <si>
+    <t>Zürich</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>Redford SA</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>Redford</t>
+  </si>
+  <si>
+    <t>Viale Stazione 11</t>
+  </si>
+  <si>
     <t>Bellinzona</t>
-  </si>
-  <si>
-    <t>Robert</t>
-  </si>
-  <si>
-    <t>Schwartz</t>
-  </si>
-  <si>
-    <t>de</t>
-  </si>
-  <si>
-    <t>fr</t>
-  </si>
-  <si>
-    <t>George</t>
-  </si>
-  <si>
-    <t>Dupoint</t>
-  </si>
-  <si>
-    <t>Rue de la Paix 10</t>
-  </si>
-  <si>
-    <t>Neuchâtel</t>
-  </si>
-  <si>
-    <t>Löwenstrasse 50</t>
-  </si>
-  <si>
-    <t>Zürich</t>
-  </si>
-  <si>
-    <t>Via delle Vigne 7</t>
-  </si>
-  <si>
-    <t>Andrew</t>
-  </si>
-  <si>
-    <t>Redford</t>
-  </si>
-  <si>
-    <t>Redford SA</t>
-  </si>
-  <si>
-    <t>Viale Stazione 11</t>
   </si>
   <si>
     <t>en</t>
@@ -192,11 +177,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,32 +514,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FF3B08-84C5-D44D-9E69-ABCFC54A88A1}">
-  <dimension ref="A1:M5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BADC48C3-990E-B042-85A2-1C78497F25B1}">
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="8.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.83203125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="23.6640625" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -583,81 +558,66 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F2" s="2">
         <v>6900</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2">
         <v>2000</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
@@ -665,55 +625,48 @@
         <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2">
         <v>8000</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="K4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F5" s="2">
         <v>6500</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>35</v>
+        <v>13</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/invoices/files/contacts.xlsx
+++ b/invoices/files/contacts.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivan/GitHub/BananaAccounting/Universal/invoices/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7E15CE2-3F38-6644-BE97-A4F320145B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1C9206-FDFB-6748-B12D-6BC13F6BDB66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-32440" yWindow="10800" windowWidth="29080" windowHeight="9660" xr2:uid="{351C8F38-3BC8-9F41-9FDB-25EE6A4BC0D2}"/>
   </bookViews>
